--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H2">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I2">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J2">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>1006.352379497116</v>
+        <v>1226.41017616571</v>
       </c>
       <c r="R2">
-        <v>1006.352379497116</v>
+        <v>11037.6915854914</v>
       </c>
       <c r="S2">
-        <v>0.2673817606791793</v>
+        <v>0.2903209230111765</v>
       </c>
       <c r="T2">
-        <v>0.2673817606791793</v>
+        <v>0.2903209230111765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H3">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I3">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J3">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>875.5150125614457</v>
+        <v>996.566817786036</v>
       </c>
       <c r="R3">
-        <v>875.5150125614457</v>
+        <v>8969.101360074324</v>
       </c>
       <c r="S3">
-        <v>0.2326190610059605</v>
+        <v>0.2359114462720015</v>
       </c>
       <c r="T3">
-        <v>0.2326190610059605</v>
+        <v>0.2359114462720015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H4">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I4">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J4">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>127.0897645339628</v>
+        <v>148.5179226578414</v>
       </c>
       <c r="R4">
-        <v>127.0897645339628</v>
+        <v>1336.661303920572</v>
       </c>
       <c r="S4">
-        <v>0.03376698430660457</v>
+        <v>0.03515778099993604</v>
       </c>
       <c r="T4">
-        <v>0.03376698430660457</v>
+        <v>0.03515778099993603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H5">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>644.6715070387719</v>
+        <v>704.1221932584284</v>
       </c>
       <c r="R5">
-        <v>644.6715070387719</v>
+        <v>6337.099739325857</v>
       </c>
       <c r="S5">
-        <v>0.1712853331731211</v>
+        <v>0.1666827371724449</v>
       </c>
       <c r="T5">
-        <v>0.1712853331731211</v>
+        <v>0.1666827371724449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H6">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>560.8568072995489</v>
+        <v>572.1616039275779</v>
       </c>
       <c r="R6">
-        <v>560.8568072995489</v>
+        <v>5149.454435348202</v>
       </c>
       <c r="S6">
-        <v>0.1490162727091622</v>
+        <v>0.1354444770534626</v>
       </c>
       <c r="T6">
-        <v>0.1490162727091622</v>
+        <v>0.1354444770534626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H7">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>81.41397754954806</v>
+        <v>85.26899684326732</v>
       </c>
       <c r="R7">
-        <v>81.41397754954806</v>
+        <v>767.4209715894059</v>
       </c>
       <c r="S7">
-        <v>0.02163120305033841</v>
+        <v>0.02018523194676229</v>
       </c>
       <c r="T7">
-        <v>0.02163120305033841</v>
+        <v>0.02018523194676229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H8">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>234.3509303796926</v>
+        <v>254.0627388926364</v>
       </c>
       <c r="R8">
-        <v>234.3509303796926</v>
+        <v>2286.564650033728</v>
       </c>
       <c r="S8">
-        <v>0.06226562947368234</v>
+        <v>0.06014278933061578</v>
       </c>
       <c r="T8">
-        <v>0.06226562947368234</v>
+        <v>0.06014278933061579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H9">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>203.8826179928073</v>
+        <v>206.448462461248</v>
       </c>
       <c r="R9">
-        <v>203.8826179928073</v>
+        <v>1858.036162151232</v>
       </c>
       <c r="S9">
-        <v>0.05417038254337784</v>
+        <v>0.0488713395736609</v>
       </c>
       <c r="T9">
-        <v>0.05417038254337784</v>
+        <v>0.04887133957366091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H10">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>29.59560206451085</v>
+        <v>30.76692524116622</v>
       </c>
       <c r="R10">
-        <v>29.59560206451085</v>
+        <v>276.902327170496</v>
       </c>
       <c r="S10">
-        <v>0.007863373058573804</v>
+        <v>0.007283274639939327</v>
       </c>
       <c r="T10">
-        <v>0.007863373058573804</v>
+        <v>0.007283274639939327</v>
       </c>
     </row>
   </sheetData>
